--- a/Objects/PGS7-0-15_20250310-BurnFile/PGS7_FW_ChangeNote.xlsx
+++ b/Objects/PGS7-0-15_20250310-BurnFile/PGS7_FW_ChangeNote.xlsx
@@ -1138,7 +1138,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
